--- a/only_action_history_information_unique_strategies_and_frequency.xlsx
+++ b/only_action_history_information_unique_strategies_and_frequency.xlsx
@@ -1405,7 +1405,7 @@
     <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="120.75">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="120.75">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="120.75">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="120.75">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>2.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="120.75">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="120.75">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="120.75">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="120.75">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="120.75">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="120.75">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="120.75">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="120.75">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="120.75">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="120.75">
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="120.75">
       <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="120.75">
       <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="120.75">
       <c r="A18" s="4" t="s">
         <v>36</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="120.75">
       <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="120.75">
       <c r="A20" s="4" t="s">
         <v>40</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="120.75">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="120.75">
       <c r="A22" s="4" t="s">
         <v>44</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="120.75">
       <c r="A23" s="4" t="s">
         <v>46</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="127.5">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="120.75">
       <c r="A24" s="4" t="s">
         <v>48</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="150.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="120.75">
       <c r="A25" s="4" t="s">
         <v>50</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="4" t="s">
         <v>54</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="4" t="s">
         <v>56</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="4" t="s">
         <v>62</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="4" t="s">
         <v>64</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="4" t="s">
         <v>66</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="4" t="s">
         <v>67</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="4" t="s">
         <v>69</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="4" t="s">
         <v>70</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="4" t="s">
         <v>71</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="4" t="s">
         <v>73</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="4" t="s">
         <v>74</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="4" t="s">
         <v>76</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="4" t="s">
         <v>77</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="4" t="s">
         <v>78</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="4" t="s">
         <v>80</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="4" t="s">
         <v>81</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="4" t="s">
         <v>82</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="4" t="s">
         <v>83</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="4" t="s">
         <v>85</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="4" t="s">
         <v>87</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="4" t="s">
         <v>88</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="4" t="s">
         <v>90</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="4" t="s">
         <v>92</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="4" t="s">
         <v>94</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="4" t="s">
         <v>96</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="4" t="s">
         <v>98</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="4" t="s">
         <v>99</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="4" t="s">
         <v>100</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="4" t="s">
         <v>102</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="4" t="s">
         <v>109</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="4" t="s">
         <v>119</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="4" t="s">
         <v>122</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="4" t="s">
         <v>126</v>
       </c>
